--- a/doc/16_テスト仕様書/04_テスト仕様書_テスト結果報告書_C2.xlsx
+++ b/doc/16_テスト仕様書/04_テスト仕様書_テスト結果報告書_C2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C2\doc\16_テスト仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BA6540-F1B8-4C72-B6D4-79384652F68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B735833-977A-414D-9D4A-8224887E359E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1416" yWindow="1848" windowWidth="21624" windowHeight="11112" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1416" yWindow="1128" windowWidth="21624" windowHeight="11112" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テスト仕様書" sheetId="2" r:id="rId1"/>
@@ -36,228 +36,241 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="76">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>対象画面</t>
+  </si>
+  <si>
+    <t>機能</t>
+  </si>
+  <si>
+    <t>テスト観点</t>
+  </si>
+  <si>
+    <t>前提条件</t>
+  </si>
+  <si>
+    <t>テスト手順</t>
+  </si>
+  <si>
+    <t>期待される結果</t>
+  </si>
+  <si>
+    <t>テスト結果</t>
+  </si>
+  <si>
+    <t>判定</t>
+  </si>
+  <si>
+    <t>担当者</t>
+  </si>
+  <si>
+    <t>実施日</t>
+  </si>
+  <si>
+    <t>実施バージョン</t>
+  </si>
+  <si>
+    <t>ログイン</t>
+  </si>
+  <si>
+    <t>入力値</t>
+  </si>
+  <si>
+    <t>IDを空、パスワードを有効なものにしてログインを実行。</t>
+  </si>
+  <si>
+    <t>入力値エラー</t>
+  </si>
+  <si>
+    <t>IDを有効なもの、パスワードを空にしてログインを実行。</t>
+  </si>
+  <si>
+    <t>IDとパスワードを空にしてログインを実行。</t>
+  </si>
+  <si>
+    <t>IDとパスワードをそれぞれ有効なものにしてログインを実行。</t>
+  </si>
+  <si>
+    <t>ホーム画面に遷移する。</t>
+  </si>
+  <si>
+    <t>記号</t>
+  </si>
+  <si>
+    <t>IDにシングルクォーテーションを入力してログインを実行。</t>
+  </si>
+  <si>
+    <t>IDに;を入力してログインを実行。</t>
+  </si>
+  <si>
+    <t>IDに&lt;を入力してログインを実行。</t>
+  </si>
+  <si>
+    <t>IDに&gt;を入力してログインを実行。</t>
+  </si>
+  <si>
+    <t>パスワードにシングルクォーテーションを入力してログインを実行。</t>
+  </si>
+  <si>
+    <t>パスワードに;を入力してログインを実行。</t>
+  </si>
+  <si>
+    <t>パスワードに&lt;を入力してログインを実行。</t>
+  </si>
+  <si>
+    <t>パスワードに&gt;を入力してログインを実行。</t>
+  </si>
+  <si>
+    <t>ログアウト</t>
+  </si>
+  <si>
+    <t>ログアウトボタンをクリック</t>
+  </si>
+  <si>
+    <t>ログイン画面に遷移</t>
+  </si>
+  <si>
+    <t>アカウント登録</t>
+  </si>
+  <si>
+    <t>userIDを未入力で実行</t>
+  </si>
+  <si>
+    <t>Passwordを未入力で実行</t>
+  </si>
+  <si>
+    <t>userID,Passwordを未入力で実行</t>
+  </si>
+  <si>
+    <t>既に登録されているuserIDを用いて実行</t>
+  </si>
+  <si>
+    <t>userID,Password以外のみ未入力で実行</t>
+  </si>
+  <si>
+    <t>すべて入力して実行</t>
+  </si>
+  <si>
+    <t>登録成功</t>
+  </si>
+  <si>
+    <t>アカウント編集</t>
+  </si>
+  <si>
+    <t>アカウントの編集</t>
+  </si>
+  <si>
+    <t>userIDの変更を試みる</t>
+  </si>
+  <si>
+    <t>変更できない</t>
+  </si>
+  <si>
+    <t>mail,nicknameを未入力で実行</t>
+  </si>
+  <si>
+    <t>以前のパスワードを誤って入力して実行</t>
+  </si>
+  <si>
+    <t>以前のパスワードだけを入力して実行</t>
+  </si>
+  <si>
+    <t>更新成功</t>
+  </si>
+  <si>
+    <t>全ての項目を問題なく入力</t>
+  </si>
+  <si>
+    <t>マニュアル画面</t>
+  </si>
+  <si>
+    <t>登録</t>
+  </si>
+  <si>
+    <t>マニュアル名を空白で登録</t>
+  </si>
+  <si>
+    <t>マニュアル名を入力して実行</t>
+  </si>
+  <si>
+    <t>操作</t>
+  </si>
+  <si>
+    <t>全ての項目を削除</t>
+  </si>
+  <si>
+    <t>エラー</t>
+  </si>
+  <si>
+    <t>更新</t>
+  </si>
+  <si>
+    <t>マニュアル名を空白で更新</t>
+  </si>
+  <si>
+    <t>入力値エラーもしくは「未設定」</t>
+  </si>
+  <si>
+    <t>データを変更して実行</t>
+  </si>
+  <si>
+    <t>削除</t>
+  </si>
+  <si>
+    <t>マニュアル詳細画面で削除を実行</t>
+  </si>
+  <si>
+    <t>削除成功</t>
+  </si>
+  <si>
+    <t>検索</t>
+  </si>
+  <si>
+    <t>未入力で検索</t>
+  </si>
+  <si>
+    <t>全てのマニュアルを表示</t>
+  </si>
   <si>
     <t>OK</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>対象画面</t>
-  </si>
-  <si>
-    <t>機能</t>
-  </si>
-  <si>
-    <t>テスト観点</t>
-  </si>
-  <si>
-    <t>前提条件</t>
-  </si>
-  <si>
-    <t>テスト手順</t>
-  </si>
-  <si>
-    <t>期待される結果</t>
-  </si>
-  <si>
-    <t>テスト結果</t>
-  </si>
-  <si>
-    <t>判定</t>
-  </si>
-  <si>
-    <t>担当者</t>
-  </si>
-  <si>
-    <t>実施日</t>
-  </si>
-  <si>
-    <t>実施バージョン</t>
-  </si>
-  <si>
-    <t>ログイン</t>
-  </si>
-  <si>
-    <t>入力値</t>
-  </si>
-  <si>
-    <t>IDを空、パスワードを有効なものにしてログインを実行。</t>
-  </si>
-  <si>
-    <t>入力値エラー</t>
-  </si>
-  <si>
-    <t>IDを有効なもの、パスワードを空にしてログインを実行。</t>
-  </si>
-  <si>
-    <t>IDとパスワードを空にしてログインを実行。</t>
-  </si>
-  <si>
-    <t>IDとパスワードをそれぞれ有効なものにしてログインを実行。</t>
-  </si>
-  <si>
-    <t>ホーム画面に遷移する。</t>
-  </si>
-  <si>
-    <t>記号</t>
-  </si>
-  <si>
-    <t>IDにシングルクォーテーションを入力してログインを実行。</t>
-  </si>
-  <si>
-    <t>IDに;を入力してログインを実行。</t>
-  </si>
-  <si>
-    <t>IDに&lt;を入力してログインを実行。</t>
-  </si>
-  <si>
-    <t>IDに&gt;を入力してログインを実行。</t>
-  </si>
-  <si>
-    <t>パスワードにシングルクォーテーションを入力してログインを実行。</t>
-  </si>
-  <si>
-    <t>パスワードに;を入力してログインを実行。</t>
-  </si>
-  <si>
-    <t>パスワードに&lt;を入力してログインを実行。</t>
-  </si>
-  <si>
-    <t>パスワードに&gt;を入力してログインを実行。</t>
-  </si>
-  <si>
-    <t>ログアウト</t>
-  </si>
-  <si>
-    <t>ログアウトボタンをクリック</t>
-  </si>
-  <si>
-    <t>ログイン画面に遷移</t>
-  </si>
-  <si>
-    <t>アカウント登録</t>
-  </si>
-  <si>
-    <t>userIDを未入力で実行</t>
-  </si>
-  <si>
-    <t>Passwordを未入力で実行</t>
-  </si>
-  <si>
-    <t>userID,Passwordを未入力で実行</t>
-  </si>
-  <si>
-    <t>既に登録されているuserIDを用いて実行</t>
-  </si>
-  <si>
-    <t>userID,Password以外のみ未入力で実行</t>
-  </si>
-  <si>
-    <t>すべて入力して実行</t>
-  </si>
-  <si>
-    <t>登録成功</t>
-  </si>
-  <si>
-    <t>アカウント編集</t>
-  </si>
-  <si>
-    <t>アカウントの編集</t>
-  </si>
-  <si>
-    <t>userIDの変更を試みる</t>
-  </si>
-  <si>
-    <t>変更できない</t>
-  </si>
-  <si>
-    <t>mail,nicknameを未入力で実行</t>
-  </si>
-  <si>
-    <t>以前のパスワードを誤って入力して実行</t>
-  </si>
-  <si>
-    <t>以前のパスワードだけを入力して実行</t>
-  </si>
-  <si>
-    <t>更新成功</t>
-  </si>
-  <si>
-    <t>全ての項目を問題なく入力</t>
-  </si>
-  <si>
-    <t>マニュアル画面</t>
-  </si>
-  <si>
-    <t>登録</t>
-  </si>
-  <si>
-    <t>マニュアル名を空白で登録</t>
-  </si>
-  <si>
-    <t>マニュアル名を入力して実行</t>
-  </si>
-  <si>
-    <t>操作</t>
-  </si>
-  <si>
-    <t>全ての項目を削除</t>
-  </si>
-  <si>
-    <t>エラー</t>
-  </si>
-  <si>
-    <t>更新</t>
-  </si>
-  <si>
-    <t>マニュアル名を空白で更新</t>
-  </si>
-  <si>
-    <t>入力値エラーもしくは「未設定」</t>
-  </si>
-  <si>
-    <t>データを変更して実行</t>
-  </si>
-  <si>
-    <t>削除</t>
-  </si>
-  <si>
-    <t>マニュアル詳細画面で削除を実行</t>
-  </si>
-  <si>
-    <t>削除成功</t>
-  </si>
-  <si>
-    <t>検索</t>
-  </si>
-  <si>
-    <t>未入力で検索</t>
-  </si>
-  <si>
-    <t>全てのマニュアルを表示</t>
-  </si>
-  <si>
-    <t>どのデータにも一致しない文字列で検索</t>
-  </si>
-  <si>
-    <t>何も表示しない</t>
   </si>
   <si>
     <t>増田</t>
-    <rPh sb="0" eb="2">
-      <t>マスダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>userIDを日本語で新規作成してログイン</t>
+  </si>
+  <si>
+    <t>エラーメッセージがおかしい</t>
+  </si>
+  <si>
+    <t>エラーメッセージが出ない</t>
+  </si>
+  <si>
+    <t>エラーにならないで登録される</t>
+  </si>
+  <si>
+    <t>松岡</t>
+  </si>
+  <si>
+    <t>すべて消せてしまう、その状態で登録しようとすると500エラー</t>
+  </si>
+  <si>
+    <t>空欄になったまま登録される</t>
+  </si>
+  <si>
+    <t>空白で登録されたデータが消せない。消せるものもあった。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,13 +303,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -411,10 +417,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="56" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -700,7 +706,7 @@
   <dimension ref="B1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -719,40 +725,40 @@
     <row r="1" spans="2:13" ht="21.6" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:13" ht="21.6" customHeight="1" thickBot="1">
       <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:13" ht="36.6" thickBot="1">
@@ -760,30 +766,30 @@
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" s="8"/>
-      <c r="J3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="L3" s="10">
-        <v>45467</v>
+      <c r="J3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" s="9">
+        <v>45469</v>
       </c>
       <c r="M3" s="8"/>
     </row>
@@ -796,15 +802,21 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
+      <c r="J4" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="9">
+        <v>45469</v>
+      </c>
       <c r="M4" s="8"/>
     </row>
     <row r="5" spans="2:13" ht="18.600000000000001" thickBot="1">
@@ -816,15 +828,21 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
+      <c r="J5" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" s="9">
+        <v>45469</v>
+      </c>
       <c r="M5" s="8"/>
     </row>
     <row r="6" spans="2:13" ht="36.6" thickBot="1">
@@ -836,631 +854,809 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
+      <c r="J6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" s="9">
+        <v>45469</v>
+      </c>
       <c r="M6" s="8"/>
     </row>
-    <row r="7" spans="2:13" ht="36.6" thickBot="1">
-      <c r="B7" s="5">
-        <v>5</v>
-      </c>
+    <row r="7" spans="2:13" ht="18.600000000000001" thickBot="1">
+      <c r="B7" s="10"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="E7" s="8"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>16</v>
+      <c r="G7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
+      <c r="J7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" s="9">
+        <v>45469</v>
+      </c>
       <c r="M7" s="8"/>
     </row>
-    <row r="8" spans="2:13" ht="18.600000000000001" thickBot="1">
+    <row r="8" spans="2:13" ht="36.6" thickBot="1">
       <c r="B8" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="E8" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="F8" s="8"/>
       <c r="G8" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
+      <c r="J8" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" s="9">
+        <v>45469</v>
+      </c>
       <c r="M8" s="8"/>
     </row>
     <row r="9" spans="2:13" ht="18.600000000000001" thickBot="1">
       <c r="B9" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
+      <c r="J9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L9" s="9">
+        <v>45469</v>
+      </c>
       <c r="M9" s="8"/>
     </row>
     <row r="10" spans="2:13" ht="18.600000000000001" thickBot="1">
       <c r="B10" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
+      <c r="J10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L10" s="9">
+        <v>45469</v>
+      </c>
       <c r="M10" s="8"/>
     </row>
-    <row r="11" spans="2:13" ht="36.6" thickBot="1">
+    <row r="11" spans="2:13" ht="18.600000000000001" thickBot="1">
       <c r="B11" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
+      <c r="J11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" s="9">
+        <v>45469</v>
+      </c>
       <c r="M11" s="8"/>
     </row>
-    <row r="12" spans="2:13" ht="18.600000000000001" thickBot="1">
+    <row r="12" spans="2:13" ht="36.6" thickBot="1">
       <c r="B12" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
+      <c r="J12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12" s="9">
+        <v>45469</v>
+      </c>
       <c r="M12" s="8"/>
     </row>
     <row r="13" spans="2:13" ht="18.600000000000001" thickBot="1">
       <c r="B13" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
+      <c r="J13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13" s="9">
+        <v>45469</v>
+      </c>
       <c r="M13" s="8"/>
     </row>
     <row r="14" spans="2:13" ht="18.600000000000001" thickBot="1">
       <c r="B14" s="5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
+      <c r="J14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L14" s="9">
+        <v>45469</v>
+      </c>
       <c r="M14" s="8"/>
     </row>
     <row r="15" spans="2:13" ht="18.600000000000001" thickBot="1">
       <c r="B15" s="5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>32</v>
+      <c r="G15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
+      <c r="J15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L15" s="9">
+        <v>45469</v>
+      </c>
       <c r="M15" s="8"/>
     </row>
     <row r="16" spans="2:13" ht="18.600000000000001" thickBot="1">
       <c r="B16" s="5">
-        <v>14</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>33</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C16" s="8"/>
       <c r="D16" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>14</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
+      <c r="J16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L16" s="9">
+        <v>45469</v>
+      </c>
       <c r="M16" s="8"/>
     </row>
     <row r="17" spans="2:13" ht="18.600000000000001" thickBot="1">
       <c r="B17" s="5">
-        <v>15</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="F17" s="8"/>
       <c r="G17" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
+      <c r="J17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L17" s="9">
+        <v>45469</v>
+      </c>
       <c r="M17" s="8"/>
     </row>
     <row r="18" spans="2:13" ht="18.600000000000001" thickBot="1">
       <c r="B18" s="5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
+      <c r="J18" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L18" s="9">
+        <v>45469</v>
+      </c>
       <c r="M18" s="8"/>
     </row>
     <row r="19" spans="2:13" ht="18.600000000000001" thickBot="1">
       <c r="B19" s="5">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
+      <c r="J19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L19" s="9">
+        <v>45469</v>
+      </c>
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="2:13" ht="18.600000000000001" thickBot="1">
       <c r="B20" s="5">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
+      <c r="J20" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L20" s="9">
+        <v>45469</v>
+      </c>
       <c r="M20" s="8"/>
     </row>
     <row r="21" spans="2:13" ht="18.600000000000001" thickBot="1">
       <c r="B21" s="5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
+      <c r="J21" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L21" s="9">
+        <v>45469</v>
+      </c>
       <c r="M21" s="8"/>
     </row>
     <row r="22" spans="2:13" ht="18.600000000000001" thickBot="1">
       <c r="B22" s="5">
-        <v>20</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>14</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
+      <c r="J22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L22" s="9">
+        <v>45469</v>
+      </c>
       <c r="M22" s="8"/>
     </row>
     <row r="23" spans="2:13" ht="18.600000000000001" thickBot="1">
       <c r="B23" s="5">
-        <v>21</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="F23" s="8"/>
       <c r="G23" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
+      <c r="J23" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L23" s="9">
+        <v>45469</v>
+      </c>
       <c r="M23" s="8"/>
     </row>
-    <row r="24" spans="2:13" ht="18.600000000000001" thickBot="1">
+    <row r="24" spans="2:13" ht="30.6" thickBot="1">
       <c r="B24" s="5">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
+      <c r="K24" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L24" s="9">
+        <v>45469</v>
+      </c>
       <c r="M24" s="8"/>
     </row>
-    <row r="25" spans="2:13" ht="18.600000000000001" thickBot="1">
+    <row r="25" spans="2:13" ht="30.6" thickBot="1">
       <c r="B25" s="5">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I25" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
+      <c r="K25" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L25" s="9">
+        <v>45469</v>
+      </c>
       <c r="M25" s="8"/>
     </row>
     <row r="26" spans="2:13" ht="18.600000000000001" thickBot="1">
       <c r="B26" s="5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
+      <c r="J26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L26" s="9">
+        <v>45469</v>
+      </c>
       <c r="M26" s="8"/>
     </row>
     <row r="27" spans="2:13" ht="18.600000000000001" thickBot="1">
       <c r="B27" s="5">
-        <v>25</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>14</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
+      <c r="J27" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L27" s="9">
+        <v>45469</v>
+      </c>
       <c r="M27" s="8"/>
     </row>
-    <row r="28" spans="2:13" ht="18.600000000000001" thickBot="1">
+    <row r="28" spans="2:13" ht="30.6" thickBot="1">
       <c r="B28" s="5">
-        <v>26</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
+        <v>25</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="F28" s="8"/>
       <c r="G28" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I28" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
+      <c r="K28" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L28" s="9">
+        <v>45469</v>
+      </c>
       <c r="M28" s="8"/>
     </row>
     <row r="29" spans="2:13" ht="18.600000000000001" thickBot="1">
       <c r="B29" s="5">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
-      <c r="E29" s="7" t="s">
-        <v>54</v>
-      </c>
+      <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
+      <c r="J29" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L29" s="9">
+        <v>45469</v>
+      </c>
       <c r="M29" s="8"/>
     </row>
-    <row r="30" spans="2:13" ht="18.600000000000001" thickBot="1">
+    <row r="30" spans="2:13" ht="58.2" thickBot="1">
       <c r="B30" s="5">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="8"/>
-      <c r="D30" s="7" t="s">
-        <v>57</v>
-      </c>
+      <c r="D30" s="8"/>
       <c r="E30" s="7" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="I30" s="8"/>
+        <v>55</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
+      <c r="K30" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L30" s="9">
+        <v>45469</v>
+      </c>
       <c r="M30" s="8"/>
     </row>
-    <row r="31" spans="2:13" ht="18.600000000000001" thickBot="1">
+    <row r="31" spans="2:13" ht="30.6" thickBot="1">
       <c r="B31" s="5">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
+      <c r="D31" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="F31" s="8"/>
       <c r="G31" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I31" s="8"/>
+        <v>58</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
+      <c r="K31" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L31" s="9">
+        <v>45469</v>
+      </c>
       <c r="M31" s="8"/>
     </row>
     <row r="32" spans="2:13" ht="18.600000000000001" thickBot="1">
       <c r="B32" s="5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
-      <c r="E32" s="7" t="s">
-        <v>54</v>
-      </c>
+      <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
+      <c r="J32" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L32" s="9">
+        <v>45469</v>
+      </c>
       <c r="M32" s="8"/>
     </row>
-    <row r="33" spans="2:13" ht="18.600000000000001" thickBot="1">
+    <row r="33" spans="2:13" ht="58.2" thickBot="1">
       <c r="B33" s="5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" s="8"/>
-      <c r="D33" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="F33" s="8"/>
       <c r="G33" s="7" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I33" s="8"/>
+        <v>55</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
+      <c r="K33" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L33" s="9">
+        <v>45469</v>
+      </c>
       <c r="M33" s="8"/>
     </row>
-    <row r="34" spans="2:13" ht="18.600000000000001" thickBot="1">
+    <row r="34" spans="2:13" ht="58.2" thickBot="1">
       <c r="B34" s="5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>14</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="I34" s="8"/>
+        <v>62</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
+      <c r="K34" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L34" s="9">
+        <v>45469</v>
+      </c>
       <c r="M34" s="8"/>
     </row>
     <row r="35" spans="2:13" ht="18.600000000000001" thickBot="1">
       <c r="B35" s="5">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
+      <c r="D35" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="F35" s="8"/>
       <c r="G35" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
+      <c r="J35" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L35" s="9">
+        <v>45469</v>
+      </c>
       <c r="M35" s="8"/>
     </row>
   </sheetData>
